--- a/data/following_study/Epilepsy study mapping file with patient info updated 1.22.24 for microbiome analysis(fixed).xlsx
+++ b/data/following_study/Epilepsy study mapping file with patient info updated 1.22.24 for microbiome analysis(fixed).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yixuanyang/Documents/Projects/Microbiome/CanineEpilepsy2/data/following_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C73B33-BB6D-5348-8324-9A33822F8944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C365F98C-8CE1-934D-A195-FC1ED4BA3D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="500" windowWidth="33720" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="390">
   <si>
     <t>SampleID</t>
   </si>
@@ -587,9 +587,6 @@
     <t>Netti_J25</t>
   </si>
   <si>
-    <t>Ella</t>
-  </si>
-  <si>
     <t>Greyhound</t>
   </si>
   <si>
@@ -1203,6 +1200,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Breed Group (2)</t>
+  </si>
+  <si>
+    <t>Ella1</t>
+  </si>
+  <si>
+    <t>Ella2</t>
   </si>
 </sst>
 </file>
@@ -1813,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1883,25 +1886,25 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>14</v>
@@ -1916,7 +1919,7 @@
         <v>17</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>18</v>
@@ -1963,7 +1966,7 @@
         <v>26</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -2031,7 +2034,7 @@
         <v>36</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -2105,7 +2108,7 @@
         <v>46</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -2179,7 +2182,7 @@
         <v>46</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -2247,7 +2250,7 @@
         <v>36</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -2315,7 +2318,7 @@
         <v>36</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -2389,7 +2392,7 @@
         <v>36</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -2463,7 +2466,7 @@
         <v>36</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -2531,7 +2534,7 @@
         <v>36</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -2605,7 +2608,7 @@
         <v>36</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
@@ -2673,7 +2676,7 @@
         <v>36</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -2741,7 +2744,7 @@
         <v>36</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
@@ -2815,7 +2818,7 @@
         <v>46</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
@@ -2883,7 +2886,7 @@
         <v>46</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
@@ -2957,13 +2960,13 @@
         <v>95</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P16" s="8">
         <v>32</v>
@@ -3029,13 +3032,13 @@
         <v>95</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P17" s="8">
         <v>43</v>
@@ -3107,7 +3110,7 @@
         <v>36</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
@@ -3177,7 +3180,7 @@
         <v>36</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
@@ -3247,7 +3250,7 @@
         <v>36</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
@@ -3323,7 +3326,7 @@
         <v>36</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
@@ -3393,7 +3396,7 @@
         <v>36</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
@@ -3469,7 +3472,7 @@
         <v>36</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
@@ -3537,7 +3540,7 @@
         <v>36</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -3611,7 +3614,7 @@
         <v>36</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
@@ -3687,7 +3690,7 @@
         <v>36</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
@@ -3761,7 +3764,7 @@
         <v>36</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
@@ -3829,7 +3832,7 @@
         <v>25</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
@@ -3897,7 +3900,7 @@
         <v>36</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
@@ -3971,7 +3974,7 @@
         <v>36</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -4039,7 +4042,7 @@
         <v>36</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
@@ -4113,7 +4116,7 @@
         <v>36</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -4187,10 +4190,10 @@
         <v>142</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O33" s="8"/>
       <c r="P33" s="8">
@@ -4257,7 +4260,7 @@
         <v>36</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
@@ -4325,7 +4328,7 @@
         <v>36</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -4399,7 +4402,7 @@
         <v>36</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
@@ -4467,7 +4470,7 @@
         <v>36</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -4541,7 +4544,7 @@
         <v>36</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
@@ -4609,7 +4612,7 @@
         <v>36</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -4967,10 +4970,10 @@
         <v>25</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O44" s="8"/>
       <c r="P44" s="8">
@@ -5037,7 +5040,7 @@
         <v>25</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
@@ -5111,7 +5114,7 @@
         <v>36</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
@@ -5179,7 +5182,7 @@
         <v>36</v>
       </c>
       <c r="M47" s="43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N47" s="43"/>
       <c r="O47" s="43"/>
@@ -5241,19 +5244,19 @@
         <v>1</v>
       </c>
       <c r="I48" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="J48" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="K48" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L48" s="39" t="s">
         <v>36</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
@@ -5291,7 +5294,7 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B49" s="8">
         <v>78</v>
@@ -5315,19 +5318,19 @@
         <v>2</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L49" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
@@ -5359,7 +5362,7 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B50" s="8">
         <v>67</v>
@@ -5383,13 +5386,13 @@
         <v>1</v>
       </c>
       <c r="I50" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J50" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="J50" s="8" t="s">
-        <v>189</v>
-      </c>
       <c r="K50" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L50" s="8" t="s">
         <v>36</v>
@@ -5424,7 +5427,7 @@
         <v>48</v>
       </c>
       <c r="X50" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y50" s="8">
         <v>98274</v>
@@ -5433,7 +5436,7 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B51" s="8">
         <v>68</v>
@@ -5457,13 +5460,13 @@
         <v>2</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L51" s="8" t="s">
         <v>36</v>
@@ -5492,7 +5495,7 @@
       <c r="V51" s="8"/>
       <c r="W51" s="8"/>
       <c r="X51" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y51" s="8">
         <v>98274</v>
@@ -5501,7 +5504,7 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B52" s="8">
         <v>22</v>
@@ -5525,13 +5528,13 @@
         <v>2</v>
       </c>
       <c r="I52" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="J52" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="K52" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L52" s="8" t="s">
         <v>36</v>
@@ -5569,7 +5572,7 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B53" s="8">
         <v>21</v>
@@ -5578,7 +5581,7 @@
         <v>712</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E53" s="8">
         <v>507</v>
@@ -5593,19 +5596,19 @@
         <v>1</v>
       </c>
       <c r="I53" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J53" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>199</v>
-      </c>
       <c r="K53" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L53" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
@@ -5643,7 +5646,7 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B54" s="8">
         <v>48</v>
@@ -5667,19 +5670,19 @@
         <v>2</v>
       </c>
       <c r="I54" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J54" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>202</v>
-      </c>
       <c r="K54" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L54" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
@@ -5708,7 +5711,7 @@
         <v>40</v>
       </c>
       <c r="X54" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y54" s="8">
         <v>16154</v>
@@ -5717,7 +5720,7 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B55" s="8">
         <v>47</v>
@@ -5741,19 +5744,19 @@
         <v>1</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
@@ -5776,7 +5779,7 @@
       <c r="V55" s="8"/>
       <c r="W55" s="8"/>
       <c r="X55" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y55" s="8">
         <v>16154</v>
@@ -5785,7 +5788,7 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B56" s="16">
         <v>103</v>
@@ -5809,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J56" s="16" t="s">
         <v>142</v>
@@ -5821,7 +5824,7 @@
         <v>36</v>
       </c>
       <c r="M56" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N56" s="16"/>
       <c r="O56" s="16"/>
@@ -5853,7 +5856,7 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B57" s="18">
         <v>104</v>
@@ -5877,10 +5880,10 @@
         <v>2</v>
       </c>
       <c r="I57" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="J57" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>210</v>
       </c>
       <c r="K57" s="8" t="s">
         <v>132</v>
@@ -5889,7 +5892,7 @@
         <v>25</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
@@ -5927,7 +5930,7 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B58" s="20">
         <v>108</v>
@@ -5951,7 +5954,7 @@
         <v>6</v>
       </c>
       <c r="I58" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J58" s="20" t="s">
         <v>142</v>
@@ -5963,7 +5966,7 @@
         <v>36</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N58" s="20"/>
       <c r="O58" s="20"/>
@@ -5997,7 +6000,7 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B59" s="11">
         <v>107</v>
@@ -6021,7 +6024,7 @@
         <v>5</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J59" s="11" t="s">
         <v>142</v>
@@ -6033,7 +6036,7 @@
         <v>36</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
@@ -6067,7 +6070,7 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B60" s="11">
         <v>106</v>
@@ -6091,7 +6094,7 @@
         <v>4</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J60" s="11" t="s">
         <v>142</v>
@@ -6103,7 +6106,7 @@
         <v>36</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
@@ -6137,7 +6140,7 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B61" s="11">
         <v>105</v>
@@ -6161,10 +6164,10 @@
         <v>3</v>
       </c>
       <c r="I61" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="J61" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="K61" s="11" t="s">
         <v>132</v>
@@ -6173,7 +6176,7 @@
         <v>25</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
@@ -6213,7 +6216,7 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B62" s="8">
         <v>100</v>
@@ -6237,22 +6240,22 @@
         <v>2</v>
       </c>
       <c r="I62" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="J62" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="J62" s="8" t="s">
-        <v>217</v>
-      </c>
       <c r="K62" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L62" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O62" s="8"/>
       <c r="P62" s="8">
@@ -6283,7 +6286,7 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B63" s="8">
         <v>99</v>
@@ -6307,22 +6310,22 @@
         <v>1</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L63" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O63" s="8"/>
       <c r="P63" s="8">
@@ -6359,7 +6362,7 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B64" s="8">
         <v>38</v>
@@ -6383,10 +6386,10 @@
         <v>2</v>
       </c>
       <c r="I64" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="J64" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="K64" s="8" t="s">
         <v>45</v>
@@ -6395,10 +6398,10 @@
         <v>132</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O64" s="8"/>
       <c r="P64" s="8">
@@ -6426,16 +6429,16 @@
         <v>48</v>
       </c>
       <c r="X64" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y64" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="Y64" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="Z64" s="9"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B65" s="8">
         <v>37</v>
@@ -6459,10 +6462,10 @@
         <v>1</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K65" s="8" t="s">
         <v>45</v>
@@ -6471,10 +6474,10 @@
         <v>132</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O65" s="8"/>
       <c r="P65" s="8">
@@ -6496,16 +6499,16 @@
       <c r="V65" s="8"/>
       <c r="W65" s="8"/>
       <c r="X65" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y65" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="Y65" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="Z65" s="8"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B66" s="8">
         <v>26</v>
@@ -6514,7 +6517,7 @@
         <v>712</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E66" s="8">
         <v>508</v>
@@ -6529,19 +6532,19 @@
         <v>2</v>
       </c>
       <c r="I66" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="J66" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="K66" s="8" t="s">
         <v>45</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N66" s="8"/>
       <c r="O66" s="8"/>
@@ -6566,16 +6569,16 @@
       <c r="V66" s="38"/>
       <c r="W66" s="38"/>
       <c r="X66" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y66" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="Y66" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="Z66" s="9"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B67" s="8">
         <v>25</v>
@@ -6599,25 +6602,25 @@
         <v>1</v>
       </c>
       <c r="I67" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="J67" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>45</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O67" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P67" s="8">
         <v>72</v>
@@ -6638,16 +6641,16 @@
       <c r="V67" s="8"/>
       <c r="W67" s="8"/>
       <c r="X67" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y67" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="Y67" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="Z67" s="8"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B68" s="8">
         <v>72</v>
@@ -6671,25 +6674,25 @@
         <v>2</v>
       </c>
       <c r="I68" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J68" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="J68" s="8" t="s">
-        <v>237</v>
-      </c>
       <c r="K68" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L68" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P68" s="8">
         <v>84</v>
@@ -6716,7 +6719,7 @@
         <v>48</v>
       </c>
       <c r="X68" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y68" s="8">
         <v>77034</v>
@@ -6725,7 +6728,7 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B69" s="8">
         <v>71</v>
@@ -6749,17 +6752,17 @@
         <v>1</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>183</v>
+        <v>389</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>25</v>
       </c>
       <c r="L69" s="8"/>
       <c r="M69" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>
@@ -6782,7 +6785,7 @@
       <c r="V69" s="8"/>
       <c r="W69" s="8"/>
       <c r="X69" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y69" s="8">
         <v>77034</v>
@@ -6791,7 +6794,7 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B70" s="8">
         <v>13</v>
@@ -6815,19 +6818,19 @@
         <v>1</v>
       </c>
       <c r="I70" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="J70" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="J70" s="8" t="s">
-        <v>243</v>
-      </c>
       <c r="K70" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L70" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
@@ -6856,7 +6859,7 @@
         <v>40</v>
       </c>
       <c r="X70" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y70" s="8">
         <v>98446</v>
@@ -6865,7 +6868,7 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B71" s="8">
         <v>14</v>
@@ -6874,7 +6877,7 @@
         <v>712</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E71" s="8">
         <v>511</v>
@@ -6889,19 +6892,19 @@
         <v>2</v>
       </c>
       <c r="I71" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="J71" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="J71" s="8" t="s">
-        <v>246</v>
-      </c>
       <c r="K71" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L71" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
@@ -6924,7 +6927,7 @@
       <c r="V71" s="8"/>
       <c r="W71" s="8"/>
       <c r="X71" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y71" s="23">
         <v>98446</v>
@@ -6933,7 +6936,7 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B72" s="8">
         <v>11</v>
@@ -6957,7 +6960,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J72" s="8" t="s">
         <v>172</v>
@@ -6969,10 +6972,10 @@
         <v>36</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O72" s="8"/>
       <c r="P72" s="8">
@@ -7003,7 +7006,7 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B73" s="8">
         <v>12</v>
@@ -7012,7 +7015,7 @@
         <v>712</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E73" s="8">
         <v>506</v>
@@ -7027,10 +7030,10 @@
         <v>2</v>
       </c>
       <c r="I73" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="J73" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>67</v>
@@ -7039,7 +7042,7 @@
         <v>46</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
@@ -7077,7 +7080,7 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B74" s="8">
         <v>30</v>
@@ -7101,19 +7104,19 @@
         <v>2</v>
       </c>
       <c r="I74" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="J74" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="J74" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="K74" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L74" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
@@ -7142,7 +7145,7 @@
         <v>40</v>
       </c>
       <c r="X74" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y74" s="8">
         <v>12845</v>
@@ -7151,7 +7154,7 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B75" s="8">
         <v>29</v>
@@ -7175,19 +7178,19 @@
         <v>1</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L75" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
@@ -7210,7 +7213,7 @@
       <c r="V75" s="8"/>
       <c r="W75" s="8"/>
       <c r="X75" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y75" s="8">
         <v>12845</v>
@@ -7219,7 +7222,7 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B76" s="8">
         <v>5</v>
@@ -7243,7 +7246,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J76" s="8" t="s">
         <v>132</v>
@@ -7255,7 +7258,7 @@
         <v>36</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
@@ -7284,7 +7287,7 @@
         <v>40</v>
       </c>
       <c r="X76" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y76" s="8">
         <v>1902</v>
@@ -7293,7 +7296,7 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B77" s="8">
         <v>6</v>
@@ -7317,7 +7320,7 @@
         <v>2</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>132</v>
@@ -7329,7 +7332,7 @@
         <v>36</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
@@ -7352,7 +7355,7 @@
       <c r="V77" s="8"/>
       <c r="W77" s="8"/>
       <c r="X77" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y77" s="8">
         <v>1902</v>
@@ -7361,7 +7364,7 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B78" s="8">
         <v>74</v>
@@ -7385,7 +7388,7 @@
         <v>2</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J78" s="8" t="s">
         <v>132</v>
@@ -7397,7 +7400,7 @@
         <v>36</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
@@ -7420,7 +7423,7 @@
       <c r="V78" s="8"/>
       <c r="W78" s="8"/>
       <c r="X78" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Y78" s="8">
         <v>54868</v>
@@ -7429,7 +7432,7 @@
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B79" s="8">
         <v>73</v>
@@ -7438,7 +7441,7 @@
         <v>712</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E79" s="8">
         <v>510</v>
@@ -7453,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J79" s="8" t="s">
         <v>132</v>
@@ -7465,7 +7468,7 @@
         <v>36</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
@@ -7494,7 +7497,7 @@
         <v>40</v>
       </c>
       <c r="X79" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Y79" s="8">
         <v>54868</v>
@@ -7503,7 +7506,7 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B80" s="8">
         <v>52</v>
@@ -7527,7 +7530,7 @@
         <v>2</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>132</v>
@@ -7539,7 +7542,7 @@
         <v>36</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
@@ -7568,7 +7571,7 @@
         <v>40</v>
       </c>
       <c r="X80" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y80" s="8">
         <v>18103</v>
@@ -7577,7 +7580,7 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B81" s="7">
         <v>51</v>
@@ -7601,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>132</v>
@@ -7613,7 +7616,7 @@
         <v>36</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
@@ -7636,7 +7639,7 @@
       <c r="V81" s="8"/>
       <c r="W81" s="8"/>
       <c r="X81" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Y81" s="8">
         <v>18103</v>
@@ -7645,7 +7648,7 @@
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B82" s="8">
         <v>31</v>
@@ -7669,10 +7672,10 @@
         <v>1</v>
       </c>
       <c r="I82" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="J82" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>45</v>
@@ -7681,10 +7684,10 @@
         <v>142</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O82" s="8"/>
       <c r="P82" s="8">
@@ -7721,7 +7724,7 @@
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B83" s="8">
         <v>32</v>
@@ -7745,10 +7748,10 @@
         <v>2</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K83" s="8" t="s">
         <v>45</v>
@@ -7757,10 +7760,10 @@
         <v>142</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O83" s="8"/>
       <c r="P83" s="8">
@@ -7791,7 +7794,7 @@
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B84" s="8">
         <v>55</v>
@@ -7815,7 +7818,7 @@
         <v>1</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J84" s="8" t="s">
         <v>132</v>
@@ -7827,7 +7830,7 @@
         <v>36</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
@@ -7865,7 +7868,7 @@
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B85" s="8">
         <v>56</v>
@@ -7889,7 +7892,7 @@
         <v>2</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J85" s="8" t="s">
         <v>132</v>
@@ -7901,7 +7904,7 @@
         <v>36</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
@@ -7933,7 +7936,7 @@
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B86" s="8">
         <v>90</v>
@@ -7957,19 +7960,19 @@
         <v>2</v>
       </c>
       <c r="I86" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="J86" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="J86" s="8" t="s">
-        <v>283</v>
-      </c>
       <c r="K86" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L86" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
@@ -7992,7 +7995,7 @@
       <c r="V86" s="8"/>
       <c r="W86" s="8"/>
       <c r="X86" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Y86" s="8">
         <v>53581</v>
@@ -8001,7 +8004,7 @@
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B87" s="8">
         <v>89</v>
@@ -8025,19 +8028,19 @@
         <v>1</v>
       </c>
       <c r="I87" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="J87" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="J87" s="8" t="s">
-        <v>286</v>
-      </c>
       <c r="K87" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L87" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
@@ -8066,7 +8069,7 @@
         <v>48</v>
       </c>
       <c r="X87" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Y87" s="8">
         <v>53581</v>
@@ -8075,7 +8078,7 @@
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B88" s="8">
         <v>79</v>
@@ -8099,19 +8102,19 @@
         <v>1</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L88" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
@@ -8140,7 +8143,7 @@
         <v>48</v>
       </c>
       <c r="X88" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y88" s="8">
         <v>37064</v>
@@ -8149,7 +8152,7 @@
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B89" s="8">
         <v>80</v>
@@ -8173,19 +8176,19 @@
         <v>2</v>
       </c>
       <c r="I89" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="J89" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="J89" s="8" t="s">
-        <v>292</v>
-      </c>
       <c r="K89" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L89" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
@@ -8208,7 +8211,7 @@
       <c r="V89" s="8"/>
       <c r="W89" s="8"/>
       <c r="X89" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y89" s="8">
         <v>37064</v>
@@ -8217,7 +8220,7 @@
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B90" s="8">
         <v>65</v>
@@ -8241,19 +8244,19 @@
         <v>1</v>
       </c>
       <c r="I90" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="J90" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="J90" s="8" t="s">
-        <v>295</v>
-      </c>
       <c r="K90" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L90" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
@@ -8285,7 +8288,7 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B91" s="8">
         <v>66</v>
@@ -8309,7 +8312,7 @@
         <v>2</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J91" s="8" t="s">
         <v>132</v>
@@ -8321,7 +8324,7 @@
         <v>36</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
@@ -8359,7 +8362,7 @@
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B92" s="8">
         <v>35</v>
@@ -8383,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J92" s="8" t="s">
         <v>142</v>
@@ -8395,7 +8398,7 @@
         <v>36</v>
       </c>
       <c r="M92" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
@@ -8427,7 +8430,7 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B93" s="16">
         <v>36</v>
@@ -8451,10 +8454,10 @@
         <v>2</v>
       </c>
       <c r="I93" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="J93" s="16" t="s">
         <v>301</v>
-      </c>
-      <c r="J93" s="16" t="s">
-        <v>302</v>
       </c>
       <c r="K93" s="16" t="s">
         <v>145</v>
@@ -8463,7 +8466,7 @@
         <v>25</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
@@ -8501,7 +8504,7 @@
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B94" s="31">
         <v>50</v>
@@ -8537,7 +8540,7 @@
         <v>25</v>
       </c>
       <c r="M94" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N94" s="33"/>
       <c r="O94" s="33"/>
@@ -8568,12 +8571,12 @@
       <c r="X94" s="33"/>
       <c r="Y94" s="33"/>
       <c r="Z94" s="35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B95" s="31">
         <v>49</v>
@@ -8609,7 +8612,7 @@
         <v>25</v>
       </c>
       <c r="M95" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N95" s="33"/>
       <c r="O95" s="33"/>
@@ -8634,12 +8637,12 @@
       <c r="X95" s="33"/>
       <c r="Y95" s="33"/>
       <c r="Z95" s="35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B96" s="29">
         <v>43</v>
@@ -8663,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="I96" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J96" s="29" t="s">
         <v>132</v>
@@ -8675,7 +8678,7 @@
         <v>36</v>
       </c>
       <c r="M96" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N96" s="8"/>
       <c r="O96" s="8"/>
@@ -8707,7 +8710,7 @@
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B97" s="8">
         <v>44</v>
@@ -8716,7 +8719,7 @@
         <v>712</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E97" s="8">
         <v>503</v>
@@ -8731,7 +8734,7 @@
         <v>2</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J97" s="8" t="s">
         <v>132</v>
@@ -8743,7 +8746,7 @@
         <v>36</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N97" s="8"/>
       <c r="O97" s="8"/>
@@ -8781,7 +8784,7 @@
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B98" s="8">
         <v>7</v>
@@ -8805,10 +8808,10 @@
         <v>1</v>
       </c>
       <c r="I98" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="J98" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="J98" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="K98" s="8" t="s">
         <v>45</v>
@@ -8817,10 +8820,10 @@
         <v>142</v>
       </c>
       <c r="M98" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N98" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O98" s="8"/>
       <c r="P98" s="8">
@@ -8857,7 +8860,7 @@
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B99" s="8">
         <v>8</v>
@@ -8881,10 +8884,10 @@
         <v>2</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K99" s="8" t="s">
         <v>45</v>
@@ -8893,10 +8896,10 @@
         <v>142</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O99" s="8"/>
       <c r="P99" s="8">
@@ -8927,7 +8930,7 @@
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B100" s="8">
         <v>81</v>
@@ -8936,7 +8939,7 @@
         <v>712</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E100" s="8">
         <v>502</v>
@@ -8951,19 +8954,19 @@
         <v>1</v>
       </c>
       <c r="I100" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="J100" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="J100" s="8" t="s">
-        <v>317</v>
-      </c>
       <c r="K100" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L100" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M100" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
@@ -8995,7 +8998,7 @@
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B101" s="8">
         <v>82</v>
@@ -9019,19 +9022,19 @@
         <v>2</v>
       </c>
       <c r="I101" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="J101" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="J101" s="8" t="s">
+      <c r="K101" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="K101" s="8" t="s">
-        <v>321</v>
       </c>
       <c r="L101" s="8" t="s">
         <v>25</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N101" s="8"/>
       <c r="O101" s="8"/>
@@ -9069,7 +9072,7 @@
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B102" s="8">
         <v>3</v>
@@ -9078,7 +9081,7 @@
         <v>712</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E102" s="8">
         <v>505</v>
@@ -9093,7 +9096,7 @@
         <v>1</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J102" s="8" t="s">
         <v>121</v>
@@ -9105,7 +9108,7 @@
         <v>36</v>
       </c>
       <c r="M102" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N102" s="8"/>
       <c r="O102" s="8"/>
@@ -9143,7 +9146,7 @@
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B103" s="8">
         <v>4</v>
@@ -9167,7 +9170,7 @@
         <v>2</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J103" s="8" t="s">
         <v>121</v>
@@ -9179,7 +9182,7 @@
         <v>36</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N103" s="8"/>
       <c r="O103" s="8"/>
@@ -9211,7 +9214,7 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B104" s="8">
         <v>34</v>
@@ -9235,7 +9238,7 @@
         <v>2</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J104" s="8" t="s">
         <v>145</v>
@@ -9247,7 +9250,7 @@
         <v>36</v>
       </c>
       <c r="M104" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
@@ -9279,7 +9282,7 @@
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B105" s="8">
         <v>33</v>
@@ -9303,7 +9306,7 @@
         <v>1</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J105" s="8" t="s">
         <v>145</v>
@@ -9315,7 +9318,7 @@
         <v>36</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N105" s="8"/>
       <c r="O105" s="8"/>
@@ -9353,7 +9356,7 @@
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B106" s="8">
         <v>17</v>
@@ -9377,10 +9380,10 @@
         <v>1</v>
       </c>
       <c r="I106" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="J106" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="J106" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="K106" s="8" t="s">
         <v>45</v>
@@ -9389,10 +9392,10 @@
         <v>67</v>
       </c>
       <c r="M106" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N106" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O106" s="8"/>
       <c r="P106" s="8">
@@ -9420,7 +9423,7 @@
         <v>48</v>
       </c>
       <c r="X106" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y106" s="8">
         <v>37814</v>
@@ -9429,7 +9432,7 @@
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B107" s="8">
         <v>18</v>
@@ -9453,10 +9456,10 @@
         <v>2</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K107" s="8" t="s">
         <v>45</v>
@@ -9465,10 +9468,10 @@
         <v>67</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O107" s="8"/>
       <c r="P107" s="8">
@@ -9490,7 +9493,7 @@
       <c r="V107" s="8"/>
       <c r="W107" s="8"/>
       <c r="X107" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y107" s="8">
         <v>37814</v>
@@ -9499,7 +9502,7 @@
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B108" s="8">
         <v>39</v>
@@ -9523,19 +9526,19 @@
         <v>1</v>
       </c>
       <c r="I108" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="J108" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="J108" s="8" t="s">
-        <v>337</v>
-      </c>
       <c r="K108" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L108" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
@@ -9573,7 +9576,7 @@
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B109" s="18">
         <v>40</v>
@@ -9597,19 +9600,19 @@
         <v>2</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L109" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
@@ -9641,7 +9644,7 @@
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B110" s="8">
         <v>58</v>
@@ -9665,7 +9668,7 @@
         <v>2</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J110" s="8" t="s">
         <v>172</v>
@@ -9677,10 +9680,10 @@
         <v>36</v>
       </c>
       <c r="M110" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N110" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O110" s="8"/>
       <c r="P110" s="8">
@@ -9711,7 +9714,7 @@
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B111" s="8">
         <v>57</v>
@@ -9735,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J111" s="8" t="s">
         <v>172</v>
@@ -9747,10 +9750,10 @@
         <v>36</v>
       </c>
       <c r="M111" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N111" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O111" s="8"/>
       <c r="P111" s="8">
@@ -9787,7 +9790,7 @@
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B112" s="8">
         <v>45</v>
@@ -9811,19 +9814,19 @@
         <v>1</v>
       </c>
       <c r="I112" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="J112" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="J112" s="8" t="s">
-        <v>346</v>
-      </c>
       <c r="K112" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L112" s="8" t="s">
         <v>25</v>
       </c>
       <c r="M112" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
@@ -9855,7 +9858,7 @@
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B113" s="8">
         <v>46</v>
@@ -9879,19 +9882,19 @@
         <v>2</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L113" s="8" t="s">
         <v>25</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N113" s="8"/>
       <c r="O113" s="8"/>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B114" s="8">
         <v>70</v>
@@ -9953,10 +9956,10 @@
         <v>2</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K114" s="8" t="s">
         <v>172</v>
@@ -9965,10 +9968,10 @@
         <v>25</v>
       </c>
       <c r="M114" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N114" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O114" s="8"/>
       <c r="P114" s="8">
@@ -9990,7 +9993,7 @@
       <c r="V114" s="8"/>
       <c r="W114" s="8"/>
       <c r="X114" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Y114" s="8">
         <v>55792</v>
@@ -9999,7 +10002,7 @@
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B115" s="8">
         <v>69</v>
@@ -10023,10 +10026,10 @@
         <v>1</v>
       </c>
       <c r="I115" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="J115" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="J115" s="8" t="s">
-        <v>354</v>
       </c>
       <c r="K115" s="8" t="s">
         <v>45</v>
@@ -10035,7 +10038,7 @@
         <v>25</v>
       </c>
       <c r="M115" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N115" s="8"/>
       <c r="O115" s="8"/>
@@ -10064,7 +10067,7 @@
         <v>40</v>
       </c>
       <c r="X115" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Y115" s="8">
         <v>55792</v>
@@ -10073,7 +10076,7 @@
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B116" s="16">
         <v>54</v>
@@ -10097,7 +10100,7 @@
         <v>2</v>
       </c>
       <c r="I116" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J116" s="16" t="s">
         <v>132</v>
@@ -10109,7 +10112,7 @@
         <v>36</v>
       </c>
       <c r="M116" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N116" s="16"/>
       <c r="O116" s="16"/>
@@ -10132,16 +10135,16 @@
       <c r="V116" s="8"/>
       <c r="W116" s="8"/>
       <c r="X116" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y116" s="8" t="s">
         <v>357</v>
-      </c>
-      <c r="Y116" s="8" t="s">
-        <v>358</v>
       </c>
       <c r="Z116" s="8"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B117" s="18">
         <v>53</v>
@@ -10165,7 +10168,7 @@
         <v>1</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J117" s="8" t="s">
         <v>132</v>
@@ -10177,7 +10180,7 @@
         <v>36</v>
       </c>
       <c r="M117" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
@@ -10206,16 +10209,16 @@
         <v>40</v>
       </c>
       <c r="X117" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y117" s="8" t="s">
         <v>357</v>
-      </c>
-      <c r="Y117" s="8" t="s">
-        <v>358</v>
       </c>
       <c r="Z117" s="8"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B118" s="16">
         <v>98</v>
@@ -10239,19 +10242,19 @@
         <v>2</v>
       </c>
       <c r="I118" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="J118" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="J118" s="16" t="s">
-        <v>363</v>
-      </c>
       <c r="K118" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L118" s="16" t="s">
         <v>36</v>
       </c>
       <c r="M118" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N118" s="16"/>
       <c r="O118" s="16"/>
@@ -10280,7 +10283,7 @@
         <v>40</v>
       </c>
       <c r="X118" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y118" s="8">
         <v>37801</v>
@@ -10289,7 +10292,7 @@
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B119" s="18">
         <v>97</v>
@@ -10313,19 +10316,19 @@
         <v>1</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L119" s="8" t="s">
         <v>36</v>
       </c>
       <c r="M119" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N119" s="8"/>
       <c r="O119" s="8"/>
@@ -10348,7 +10351,7 @@
       <c r="V119" s="8"/>
       <c r="W119" s="8"/>
       <c r="X119" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y119" s="8">
         <v>37801</v>
@@ -10357,10 +10360,10 @@
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B120" s="24" t="s">
         <v>366</v>
-      </c>
-      <c r="B120" s="24" t="s">
-        <v>367</v>
       </c>
       <c r="C120" s="24">
         <v>715</v>
@@ -10397,10 +10400,10 @@
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="B121" s="26" t="s">
         <v>368</v>
-      </c>
-      <c r="B121" s="26" t="s">
-        <v>369</v>
       </c>
       <c r="C121" s="26">
         <v>715</v>
@@ -10437,10 +10440,10 @@
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="B122" s="26" t="s">
         <v>370</v>
-      </c>
-      <c r="B122" s="26" t="s">
-        <v>371</v>
       </c>
       <c r="C122" s="26">
         <v>715</v>
@@ -10477,10 +10480,10 @@
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C123" s="27">
         <v>704</v>
@@ -10517,10 +10520,10 @@
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C124" s="27">
         <v>704</v>
@@ -10557,10 +10560,10 @@
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C125" s="27">
         <v>704</v>
